--- a/ITI/BALP/ValueSet-AllUpdateVS.xlsx
+++ b/ITI/BALP/ValueSet-AllUpdateVS.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FHIR Restful Int" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T15:31:49-06:00</t>
+    <t>2025-10-31T12:57:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IHE IT Infrastructure Technical Committee (https://www.ihe.net/ihe_domains/it_infrastructure/, iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -343,43 +346,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -401,38 +404,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
